--- a/MAALA, JOSEPHINE D..xlsx
+++ b/MAALA, JOSEPHINE D..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>PERIOD</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -545,6 +548,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -557,20 +569,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,7 +1029,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1069,7 +1072,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1136,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1196,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1262,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1325,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1423,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1482,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1547,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1590,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1665,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1851,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1917,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1975,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2041,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2097,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2172,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2215,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2281,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2337,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2435,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2498,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,9 +2945,9 @@
   <dimension ref="A2:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,14 +2977,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2992,16 +2995,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="55">
         <v>44743</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3014,14 +3017,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3047,18 +3050,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3105,7 +3108,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>11.25</v>
+        <v>12.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3115,7 +3118,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>11.25</v>
+        <v>13.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3319,15 +3322,19 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="39">
+        <v>45017</v>
+      </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="38"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="9"/>
@@ -3335,15 +3342,19 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="39">
+        <v>45047</v>
+      </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="9"/>
@@ -3351,10 +3362,16 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="39">
+        <v>45078</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -4216,17 +4233,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/MAALA, JOSEPHINE D..xlsx
+++ b/MAALA, JOSEPHINE D..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,6 +546,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2947,7 +2953,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,62 +2975,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>44743</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3050,18 +3056,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3108,7 +3114,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>12.75</v>
+        <v>15.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3118,7 +3124,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>13.75</v>
+        <v>14.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3368,15 +3374,17 @@
       <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="38">
         <v>1</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="9"/>
@@ -3384,15 +3392,19 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="39">
+        <v>45108</v>
+      </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="38"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="9"/>
@@ -3400,8 +3412,12 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="38"/>
       <c r="E24" s="9"/>
@@ -3410,14 +3426,20 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="48">
+        <v>45142</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="38"/>
       <c r="E25" s="9"/>
@@ -3426,10 +3448,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="48">
+        <v>45163</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
@@ -4295,17 +4321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -4380,12 +4406,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
